--- a/2_pki/検討内容.xlsx
+++ b/2_pki/検討内容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2_pki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A69C66-DFAC-4D9B-B82E-721052BE677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F09CB1D-FB2E-4E5F-A8F1-4675D1382598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="12630" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="12660" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知識" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>PKCS(Public Key Cryptography Standards)</t>
     <phoneticPr fontId="1"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.509は、公開鍵証明書の標準形式や証明書パス検証アルゴリズム（英語版）などを定めている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>X.509体系では、認証局は公開鍵を特定のX.500の識別名もしくはメールアドレスやDNSエントリのような別の名前に関連付ける証明書を発行</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,6 +217,247 @@
   </si>
   <si>
     <t>プリロードHSTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X.509は、公開鍵証明書の標準形式や証明書パス検証アルゴリズム（英語版）などを定めている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常時SSLと検査</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSLインスペクション機能</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Client HelloのSNIチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL複合、可視化</t>
+    <rPh sb="3" eb="5">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレオレ証明書</t>
+    <rPh sb="4" eb="7">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTMの証明書</t>
+    <rPh sb="4" eb="7">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSKアクセラレータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Server Name Indication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNIは、小包を家ではなくアパートに郵送するようなものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰かの家に何かを郵送する場合、住所だけで荷物を適切な人に届けることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、小包をアパートの建物に届けるときは、住所に加えて部屋番号が必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くのWebサーバーは、家よりもアパートの建物に似ています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードサイニング証明書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアにデジタル署名を行う電子署名用の証明書です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアの配布元を認証し、なりすましや内容の改ざんなどがされていないことを保証し、ユーザの手元に責任をもってソフトウェアを届けることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディジタル証明書</t>
+    <rPh sb="5" eb="8">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKIにおいてディジタル署名の正当性を証明する</t>
+    <rPh sb="12" eb="14">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セイトウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異なるアプリでも使えるようにX.509の書式で記載されている</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKIの役割</t>
+    <rPh sb="4" eb="6">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CA:ディジタル証明書の登録から発行までを行う</t>
+    <rPh sb="8" eb="11">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA:利用者からディジタル証明書の登録を受け付け、承認、認可を行う</t>
+    <rPh sb="3" eb="6">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IA:発行局。ディジタル証明書の正当性を確認するアプリとやり取りする</t>
+    <rPh sb="3" eb="6">
+      <t>ハッコウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイトウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>証明書プリ氏</t>
+    <rPh sb="0" eb="3">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証局ではCPとCPSを作成、管理し、利用者に公開する</t>
+    <rPh sb="0" eb="3">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディジタル証明書の利用者、利用範囲</t>
+    <rPh sb="5" eb="8">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>リヨウハンイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -638,101 +875,259 @@
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6</v>
-      </c>
       <c r="B36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
+      <c r="A38">
+        <v>7</v>
+      </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43">
-        <v>7</v>
-      </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
